--- a/PRACA2_/CSV/Operation.xlsx
+++ b/PRACA2_/CSV/Operation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciek\Desktop\PRACA2_\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77AD20EC-FD7E-4527-954A-BA6C4F96844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6BC5A0-D2FC-46C2-9C62-4F06AF472E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="1680" windowWidth="14970" windowHeight="15240" xr2:uid="{C4584DEE-19AC-4627-97CE-AF10E5C28EEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4584DEE-19AC-4627-97CE-AF10E5C28EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>PauseCount</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
   <si>
     <t>False</t>
@@ -412,13 +409,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11948E7-972A-40A1-BCF6-615A5D797891}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -445,23 +449,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f ca="1">RAND()</f>
-        <v>4.0699288674369671E-2</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <f ca="1">RAND()</f>
-        <v>0.36852591263170986</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="D2:F2" ca="1" si="0">RAND()</f>
-        <v>2.9790883629206788E-2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f ca="1">TRUNC(RAND()*100)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -469,23 +469,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:F7" ca="1" si="1">RAND()</f>
-        <v>0.97422252777484375</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.61373858859906416</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5589257043925463</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F7" ca="1" si="2">TRUNC(RAND()*100)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -493,23 +489,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32841498398360902</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.8583152435719099E-2</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4747669457658632</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -517,23 +509,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20934263871906911</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11519484664939683</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.65700710282134867</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -541,47 +529,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10693809905168949</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.30448391747925929</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.92678941533314352</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="2"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.61349326853818398</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.59960502418874895</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.95530836076987768</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
